--- a/Excel/ServerInfoConfig.xlsx
+++ b/Excel/ServerInfoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Yet\Project\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBC461-25BC-41BF-8295-497C9C06B779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647ABA7D-B903-4BDD-96BD-7E9FF730ED09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,7 +480,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
